--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45551</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44489</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44448</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45880</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45980</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45289.42722222222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>45643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45923</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>45771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45922.68905092592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44845</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45750</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45275</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45414</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45054</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>45804.566875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>45812</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>45831.50282407407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45923.55023148148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45665</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45183</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>45946.53731481481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45947.49185185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45875</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>45986.62693287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>46006.43835648148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44869</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44356.3978587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44319.5371875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44347</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44467.63736111111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44505</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44435.48424768518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44460.60693287037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44606.69184027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44746</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44303.90922453703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44465.83997685185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>44401.44586805555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>44401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>44333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44726</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44505</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44496.35686342593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44505</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44651</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44456.55350694444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44719</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>44482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44799.66078703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44694</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44494.86805555555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44651</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44518.60405092593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>44511.62271990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44368.60549768519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>44482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>44598</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44258</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44364</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44300</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44980</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45674</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45456</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>45625.43577546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45617</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44805.52994212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44637.42344907407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45090</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>45524</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45218.4169212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45159.38371527778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45578</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>45713.64682870371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45687</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>45630</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45520</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44743.56622685185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>45167.40119212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45539.62459490741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>45742</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>45393.57497685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45771</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45471</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44896.56736111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>45253.64381944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44876.30590277778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>45662</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>44889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45750</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45223.57947916666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44684.58184027778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45884.55540509259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45640.3178125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45747.44877314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45799.32064814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44801.94767361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45567.46071759259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45223</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45586.77313657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45602.45215277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>45453.55965277777</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>45587</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>45544.50271990741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45716.60288194445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>45887.67186342592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45805.37556712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45805.38965277778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45153</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45208</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44300</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45810.6196875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>45177.40582175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>44935.47858796296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45811</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45686.60108796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45470.57790509259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45891.63328703704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45812.46127314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45891</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45812.42153935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>45812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45469</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45891</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45812</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45891.63664351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45895</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45742.59262731481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45895.35975694445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45897</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45896.65934027778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45896</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45896</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45819</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45897.60939814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>45896.43155092592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>45896</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44867</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44434.67637731481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45819</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45901.55134259259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>45818</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45901.37824074074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45901.62855324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45901.37231481481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45902</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45063.62739583333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44544.35211805555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45824.69491898148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45245.48929398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>45825.36674768518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>45909.58709490741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45825.51052083333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45825.48892361111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>45749</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>45909.57890046296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45911.55355324074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45825.49204861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45013.61585648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>45911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45826.4578587963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45826.50634259259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45915.45674768519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45915.58487268518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45826.59048611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45912.43563657408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45643.6925</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45826.48462962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45827.33614583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45420.74119212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45831.57122685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45230.57813657408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45918</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45918</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45919.4736574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45918</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45922.67131944445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>45911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>45925.64365740741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45832</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>45720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45833.46820601852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44788</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45832</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45427.63145833334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45638</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>45107</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45925</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45925.37945601852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45924.70509259259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45834.63178240741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45835</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45929</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45524.54856481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45835.44541666667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45929</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45835.4183912037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45926.61857638889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45834</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45931.39087962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>45114</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>45931</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45835.56497685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45834.65680555555</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45931</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45835</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45712.47305555556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45827.32953703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45933</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45434</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45932.60266203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45700</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45754</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45932.51171296297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>45741.62037037037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45933</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45722</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45933</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45932.43795138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45932.4591087963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45688</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45936.56618055556</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45936.45268518518</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45936.54788194445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45936.56003472222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45841.40168981482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45545</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45841.46604166667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45180</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45072</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45072</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45940.6605324074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>45271.70149305555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>45943.64987268519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>45842.4705787037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>45943.64201388889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45940.60739583334</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45943</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45943.5703125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45943</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45169.48890046297</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45940.56537037037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45940.58966435185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45945.69899305556</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45945.48466435185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45575.58648148148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45947</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45848.44229166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45947</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45947</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>45947.45486111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>45692.56569444444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45664</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45950.44045138889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45826</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>45951</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45853</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45951.44256944444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45951.33466435185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>45597</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45769</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45776</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45953.3792824074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45246.54696759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>45867</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45953.3784375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45952.54662037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45953.67331018519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45671.40900462963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45870.42993055555</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45299.33832175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45407.59866898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45954.51530092592</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45771</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44236</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45958.5880787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>45959.55449074074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>45665</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>45124</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>45124</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45603.5819675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45959.36414351852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>45667.6453587963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>45874.60010416667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45959.56959490741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45877</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>45604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45960.53378472223</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45267</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45961.50017361111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45960.42135416667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45744.59353009259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45384</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45960.52164351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45253</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45897.61912037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45965.34521990741</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45628</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45880.63378472222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>45408.4859375</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45087.49439814815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45088.94734953704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45966.3782175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45882</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45882</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45968.59608796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45968.50046296296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>45968.50886574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45328</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45971.6706712963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45882</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45971.60143518518</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45972</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45973.64105324074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45973</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45973.60055555555</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45973</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45973</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45883</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45973.57196759259</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45973.60501157407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45973.61988425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45973.60925925926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45750.0056712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45973</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>45972</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>45974</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45167.52358796296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45974.46380787037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44911</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45887.62321759259</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>45974.41037037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45974.41440972222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45763</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44904.49831018518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45974.37140046297</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45974.38503472223</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45978.60393518519</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45529</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45257</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45981.63868055555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>45436</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45418</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45981.65354166667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45982.4777662037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45985.54855324074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45985.33813657407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45597</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>44435.47295138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45982.38162037037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>45625</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45625.78412037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45516</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45985.40229166667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45981.88030092593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45985.39790509259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>45229.65445601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45393.588125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>45986</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>45576.52289351852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>45012</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45988.74881944444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>45989.49996527778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>45989.4919212963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45989.49606481481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>45428.45182870371</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44803</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>45364</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>45658.74451388889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>45989.5347800926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>45992.52568287037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45646</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>45401.48166666667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45992.50758101852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45992.52372685185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45618.44033564815</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45384</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45993.48380787037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45993.39767361111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45229</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45327.44349537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>45995.47346064815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>45995.7172337963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45740.83446759259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45995.39877314815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45732.87565972222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45077.48210648148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45996.51069444444</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45999.45385416667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>45996.4994212963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>45602</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>46040.74627314815</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45996.46725694444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>46000.37956018518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>46001</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>46000.31518518519</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>45588</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45628</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45391.88422453704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44536.57564814815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44579.56311342592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>46001.46604166667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>46001.42677083334</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>46001.53278935186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28483,7 +28483,7 @@
         <v>46001.63010416667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>46001.31626157407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>46003.3328125</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44911</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>46003</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>46003.69746527778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45226</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>46001.91555555556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44386</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>46002.69542824074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>46002.57747685185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>46003.69002314815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>46002.57288194444</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44439</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45189.46456018519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>46006</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>45037.32414351852</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44789</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>46006</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44805.56246527778</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45232</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>46004.47174768519</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45202.79825231482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45133</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>46004.46229166666</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>45456.50659722222</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44470</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45772</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>46009.52553240741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>45775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>44847</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>46010.44204861111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45077.47910879629</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45077.4805787037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>44960</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45484</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45537</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44588</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>46014.37099537037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45063.60222222222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45581</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45767</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>46014.49609953703</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44981</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45203.36576388889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45463</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44579.55377314815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44951.66170138889</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>46056.4637037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>46056.46625</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45152.51186342593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>45758</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44844.64200231482</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45578</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45120.30858796297</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45622</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45240.6055787037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45202.56717592593</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45547</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>45418</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>45364</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44994</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>45462.61162037037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>45763</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>45616</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>44887.57297453703</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>45173</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45014.74503472223</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>45625.76855324074</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45625.78240740741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>45625</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>44957</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32978,7 +32978,7 @@
         <v>45474.34940972222</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33035,7 +33035,7 @@
         <v>45748.58888888889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45511.64414351852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45524</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>44596</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45186.41872685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45569</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33392,7 +33392,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33449,7 +33449,7 @@
         <v>45244.82778935185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         <v>45775</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33568,7 +33568,7 @@
         <v>45583</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44691.36131944445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>45096.36200231482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>45195</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>45655</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33863,7 +33863,7 @@
         <v>45655.80100694444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33920,7 +33920,7 @@
         <v>44935</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>44959</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>45230</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45274.52950231481</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45184</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         <v>45723</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         <v>45124</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34339,7 +34339,7 @@
         <v>45524.60002314814</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34396,7 +34396,7 @@
         <v>45579</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>45568.36819444445</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>45342</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>45770.32002314815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>45726.87460648148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>45567</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>45700</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>45088.95497685186</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>45775</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>45643</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34981,7 +34981,7 @@
         <v>44530.60211805555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45439</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35105,7 +35105,7 @@
         <v>45644.54251157407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44960</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>45700.60505787037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45436</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35343,7 +35343,7 @@
         <v>45463</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>44880</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>45700</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>45204</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>44467.63005787037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>45720.44628472222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35695,7 +35695,7 @@
         <v>45593.341875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35752,7 +35752,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35834,7 +35834,7 @@
         <v>44461.56226851852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35891,7 +35891,7 @@
         <v>44872.32150462963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35948,7 +35948,7 @@
         <v>45516</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36005,7 +36005,7 @@
         <v>45723.6612037037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>45700.44770833333</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>44235</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44809</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>45607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>44672</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44998</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45195</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45427</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45427</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45741.50583333334</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44386</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>45471.54475694444</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45414.38712962963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36838,7 +36838,7 @@
         <v>45586.37773148148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45495.58861111111</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45667</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45439</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45789.31070601852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>45788.46444444444</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45477.57092592592</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>45530.67231481482</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>45790.44490740741</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45791.55612268519</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45593.52293981481</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45791</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45791</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45790.38118055555</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45790.31645833333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>45667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>45793</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>45793</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         <v>45792.31489583333</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>45792</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>45355</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>45726.64355324074</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>45797.63240740741</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38286,7 +38286,7 @@
         <v>44543</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>45747.44082175926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44515</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45796.64369212963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>45439</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>45322</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45551</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44489</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44448</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45880</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45980</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45289.42722222222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>45643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45923</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>45771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45922.68905092592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44845</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45750</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45275</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45414</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45054</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>45804.566875</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>45812</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>45831.50282407407</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45923.55023148148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45665</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45183</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>45946.53731481481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>45947.49185185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>45875</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>45986.62693287037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>46006.43835648148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44869</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44356.3978587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44319.5371875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44347</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44467.63736111111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44505</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44435.48424768518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44460.60693287037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44606.69184027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44746</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44303.90922453703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44465.83997685185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>44401.44586805555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>44401</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>44333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44726</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44505</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44496.35686342593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44505</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44651</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44456.55350694444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>44719</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>44482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44799.66078703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44694</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44494.86805555555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44651</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44518.60405092593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>44511.62271990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44368.60549768519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>44482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>44598</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44258</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44364</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44300</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44980</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45674</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45456</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>45625.43577546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>45617</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>44805.52994212963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44637.42344907407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>45090</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>45524</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>45218.4169212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45159.38371527778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45418</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45578</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>45713.64682870371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45687</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>45630</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>45520</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>44743.56622685185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>45167.40119212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>45539.62459490741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>45742</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>45393.57497685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>45771</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45471</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44896.56736111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>45253.64381944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45749</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44876.30590277778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
         <v>45662</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>44889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>45750</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>45223.57947916666</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44684.58184027778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>45884.55540509259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>44963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45640.3178125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45747.44877314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45799.32064814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44801.94767361111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
         <v>45567.46071759259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45223</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45586.77313657408</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>45602.45215277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>45453.55965277777</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>45587</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>45544.50271990741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45716.60288194445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>45887.67186342592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>45802</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45805.37556712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45805.38965277778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45153</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45208</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44300</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45810.6196875</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>45177.40582175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>44935.47858796296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45811</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45686.60108796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45470.57790509259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45891.63328703704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45812.46127314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45891</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45812.42153935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>45812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45469</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45891</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>45812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         <v>45812</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45891.63664351852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>45895</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45742.59262731481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45895.35975694445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>45897</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>45817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45896.65934027778</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45896</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45896</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>45819</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45897.60939814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>45896.43155092592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>45896</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44867</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44434.67637731481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45819</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45901.55134259259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>45818</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45901.37824074074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45901.62855324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45901.37231481481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>45902</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>45063.62739583333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44544.35211805555</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>45824.69491898148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>45245.48929398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>45825.36674768518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
         <v>45909.58709490741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>45825.51052083333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12428,7 +12428,7 @@
         <v>45825.48892361111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>45749</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>45909.57890046296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45911.55355324074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>45825.49204861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45013.61585648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>45911</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12847,7 +12847,7 @@
         <v>45826.4578587963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45826.50634259259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45915.45674768519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45915.58487268518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45826.59048611111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45912.43563657408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45643.6925</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45826</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45826.48462962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45827.33614583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>45106</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>45420.74119212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>45831.57122685185</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>45230.57813657408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>45918</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45646</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45918</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>45919.4736574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13953,7 +13953,7 @@
         <v>45918</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>45922.67131944445</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>45911</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>45925.64365740741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45832</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>45720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>45833.46820601852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>44788</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45832</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45427.63145833334</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45638</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>45107</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45925</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>45925.37945601852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45924.70509259259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45834.63178240741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45835</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>45929</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45524.54856481482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45835.44541666667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45929</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45835.4183912037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45926.61857638889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45834</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45931.39087962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>45114</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>45931</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45931</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45835.56497685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45834.65680555555</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45931</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45835</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45712.47305555556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45827.32953703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>45933</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45434</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16145,7 +16145,7 @@
         <v>45932.60266203704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45700</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45754</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45932.51171296297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>45741.62037037037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>45933</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45722</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>45933</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45932.43795138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45245</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45932.4591087963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45688</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45936.56618055556</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45936.45268518518</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45936.54788194445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>45841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>45936.56003472222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45841.40168981482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>45545</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>45841.46604166667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>45180</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>45072</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45072</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45940.6605324074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>45271.70149305555</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>45943.64987268519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17804,7 +17804,7 @@
         <v>45842.4705787037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>45943.64201388889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45940.60739583334</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45943</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45943.5703125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45943</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45169.48890046297</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45940.56537037037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45940.58966435185</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45945.69899305556</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45945.48466435185</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45575.58648148148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45947</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45848.44229166667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45947</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45947</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>45947.45486111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>45692.56569444444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>45664</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45950.44045138889</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45826</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>45951</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45853</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45951.44256944444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45951.33466435185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>45597</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>45769</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45776</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45953.3792824074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45867</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45246.54696759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>45867</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45953.3784375</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         <v>45952.54662037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45953.67331018519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45671.40900462963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>45870.42993055555</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45299.33832175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45407.59866898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>45954.51530092592</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45771</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44236</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45958.5880787037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>45959.55449074074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>45665</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>45124</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>45124</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45603.5819675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45959.36414351852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>45667.6453587963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>45874.60010416667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45959.56959490741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45877</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>45604</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45960.53378472223</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45267</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45961.50017361111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45960.42135416667</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45744.59353009259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45384</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45960.52164351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45253</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45897.61912037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45965.34521990741</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45628</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45964</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45880.63378472222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>45408.4859375</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45965</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>45087.49439814815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45088.94734953704</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22148,7 +22148,7 @@
         <v>45966.3782175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45882</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45882</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45968.59608796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45968.50046296296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>45968.50886574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45328</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45971.6706712963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45882</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45971.60143518518</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45972</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45973.64105324074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45973</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45973.60055555555</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45973</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45973</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45883</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45973.57196759259</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45973.60501157407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45973.61988425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45973.60925925926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45750.0056712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45973</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>45972</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>45974</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45167.52358796296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45974.46380787037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44911</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>45887.62321759259</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>45974.41037037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45974.41440972222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45763</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>44904.49831018518</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45974.37140046297</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45974.38503472223</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45978.60393518519</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45529</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45257</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45981.63868055555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>45436</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45418</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45981.65354166667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45982.4777662037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45985.54855324074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45985.33813657407</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45597</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>44435.47295138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45982.38162037037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>45625</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45625.78412037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45516</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45985.40229166667</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45981.88030092593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45985.39790509259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>45229.65445601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45393.588125</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>45986</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>45576.52289351852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>45012</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45988.74881944444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>45989.49996527778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>45989.4919212963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45989.49606481481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>45428.45182870371</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44803</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>45364</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>45658.74451388889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>45989.5347800926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>45992.52568287037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>45646</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>45401.48166666667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45992.50758101852</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45992.52372685185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         <v>45618.44033564815</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26698,7 +26698,7 @@
         <v>45384</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>45993.48380787037</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>45993.39767361111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>45229</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>45484</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>45327.44349537037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>45995.47346064815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>45995.7172337963</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45740.83446759259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45995.39877314815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>45732.87565972222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>45077.48210648148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45996.51069444444</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45999.45385416667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>45996.4994212963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27660,7 +27660,7 @@
         <v>45602</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>46040.74627314815</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45996.46725694444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>46000.37956018518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>46001</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27960,7 +27960,7 @@
         <v>46000.31518518519</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28017,7 +28017,7 @@
         <v>45588</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28074,7 +28074,7 @@
         <v>45628</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28131,7 +28131,7 @@
         <v>45391.88422453704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44536.57564814815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44579.56311342592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>46001.46604166667</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>46001.42677083334</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>46001.53278935186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28483,7 +28483,7 @@
         <v>46001.63010416667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         <v>46001.31626157407</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>46003.3328125</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28664,7 +28664,7 @@
         <v>44911</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28721,7 +28721,7 @@
         <v>46003</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28778,7 +28778,7 @@
         <v>46003.69746527778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>45226</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>46001.91555555556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44386</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>46002.69542824074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>46002.57747685185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>46003.69002314815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>46002.57288194444</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44439</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>45189.46456018519</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
         <v>46006</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29430,7 +29430,7 @@
         <v>45037.32414351852</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29487,7 +29487,7 @@
         <v>44789</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>46006</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44805.56246527778</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45232</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>46004.47174768519</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45202.79825231482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29849,7 +29849,7 @@
         <v>45133</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>46004.46229166666</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>45456.50659722222</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44470</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45772</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>46009.52553240741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30206,7 +30206,7 @@
         <v>45775</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>44847</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45607</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>46010.44204861111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>45229</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>45077.47910879629</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>45077.4805787037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>44960</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>45484</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45537</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44588</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>46014.37099537037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45063.60222222222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45581</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45767</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>46014.49609953703</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44981</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45203.36576388889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45463</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44579.55377314815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44951.66170138889</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>46056.4637037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>46056.46625</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45152.51186342593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>45758</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>44844.64200231482</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45578</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45120.30858796297</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45622</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31939,7 +31939,7 @@
         <v>45240.6055787037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31996,7 +31996,7 @@
         <v>45202.56717592593</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45230</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45547</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>45418</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>45364</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32296,7 +32296,7 @@
         <v>44994</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32358,7 +32358,7 @@
         <v>45462.61162037037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>45763</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>45616</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>44887.57297453703</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>45173</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45014.74503472223</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>45625.76855324074</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45625.78240740741</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>45625</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>44957</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32978,7 +32978,7 @@
         <v>45474.34940972222</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33035,7 +33035,7 @@
         <v>45748.58888888889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45511.64414351852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>45524</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>44596</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45186.41872685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33330,7 +33330,7 @@
         <v>45569</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33392,7 +33392,7 @@
         <v>45114</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33449,7 +33449,7 @@
         <v>45244.82778935185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         <v>45775</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33568,7 +33568,7 @@
         <v>45583</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44691.36131944445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>45096.36200231482</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>45195</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>45655</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33863,7 +33863,7 @@
         <v>45655.80100694444</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33920,7 +33920,7 @@
         <v>44935</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>44959</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34039,7 +34039,7 @@
         <v>45230</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>45274.52950231481</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45184</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         <v>45723</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34282,7 +34282,7 @@
         <v>45124</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34339,7 +34339,7 @@
         <v>45524.60002314814</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34396,7 +34396,7 @@
         <v>45579</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>45568.36819444445</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>45342</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>45770.32002314815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>45726.87460648148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>45567</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34748,7 +34748,7 @@
         <v>45700</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34805,7 +34805,7 @@
         <v>45088.95497685186</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>45775</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>45643</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34981,7 +34981,7 @@
         <v>44530.60211805555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45439</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35105,7 +35105,7 @@
         <v>45644.54251157407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44960</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>45700.60505787037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45436</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35343,7 +35343,7 @@
         <v>45463</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>44880</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35462,7 +35462,7 @@
         <v>45700</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35519,7 +35519,7 @@
         <v>45204</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>44467.63005787037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35633,7 +35633,7 @@
         <v>45720.44628472222</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35695,7 +35695,7 @@
         <v>45593.341875</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35752,7 +35752,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35834,7 +35834,7 @@
         <v>44461.56226851852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35891,7 +35891,7 @@
         <v>44872.32150462963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35948,7 +35948,7 @@
         <v>45516</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36005,7 +36005,7 @@
         <v>45723.6612037037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36067,7 +36067,7 @@
         <v>45700.44770833333</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36124,7 +36124,7 @@
         <v>44235</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44809</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>45607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>44672</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44998</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36424,7 +36424,7 @@
         <v>45195</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45427</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45427</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45741.50583333334</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>44386</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>45471.54475694444</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45414.38712962963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36838,7 +36838,7 @@
         <v>45586.37773148148</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45495.58861111111</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45667</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45439</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>44515</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45789.31070601852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>45788.46444444444</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45477.57092592592</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>45530.67231481482</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>45790.44490740741</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45791.55612268519</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45593.52293981481</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45791</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45791</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45790.38118055555</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45790.31645833333</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>45667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>45793</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>45793</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         <v>45792.31489583333</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>45792</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>45355</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>45726.64355324074</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38224,7 +38224,7 @@
         <v>45797.63240740741</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38286,7 +38286,7 @@
         <v>44543</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>45747.44082175926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38400,7 +38400,7 @@
         <v>44515</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38457,7 +38457,7 @@
         <v>45796.64369212963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38514,7 +38514,7 @@
         <v>45439</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38571,7 +38571,7 @@
         <v>45322</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>

--- a/Översikt FILIPSTAD.xlsx
+++ b/Översikt FILIPSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45551</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>44489</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>44448</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>45880</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45980</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>45289.42722222222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>45643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>45923</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45545</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>45771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>44845</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45922.68905092592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>45545</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45750</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45275</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45414</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>45054</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44503</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44701</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>45831.50282407407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45665</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>45923.55023148148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45183</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45946.53731481481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>45947.49185185185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>45986.62693287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>46006.43835648148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44869</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45804.566875</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>45812</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44840</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44356.3978587963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44319.5371875</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>44347</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>44467.63736111111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>44664</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         <v>44505</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44327</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>44435.48424768518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44460.60693287037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>44606.69184027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44746</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44496</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44303.90922453703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>44401.44586805555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>44401</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>44465.83997685185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>44333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44454</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44726</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>44505</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44496.35686342593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44505</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>44651</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44719</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44456.55350694444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44606</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>44713</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>44854</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>44799.66078703704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44694</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44494.86805555555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44651</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>44518.60405092593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>44511.62271990741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>44368.60549768519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44655</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>44482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>44598</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44258</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44364</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44300</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44980</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>45674</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45456</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>45625.43577546296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>44805.52994212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>45617</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>45524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>44637.42344907407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>45090</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>45218.4169212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>45418</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>45159.38371527778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>45713.64682870371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         <v>45578</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>45630</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>45520</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>44743.56622685185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>45167.40119212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>45539.62459490741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45393.57497685185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>45253.64381944444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>45749</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44876.30590277778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>45662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>45223.57947916666</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>45750</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>44684.58184027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>44963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>45640.3178125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>45223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>45602.45215277778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         <v>45567.46071759259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>45742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44445</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>45771</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45716.60288194445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45453.55965277777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>45587</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>45153</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>45544.50271990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>45471</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44896.56736111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44300</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>45177.40582175926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44935.47858796296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45817</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45819</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>45884.55540509259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>45686.60108796296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45819</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>45742.59262731481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>45818</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45887.67186342592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44867</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44434.67637731481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>45824.69491898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>45825.36674768518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>45825.48892361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>45825.49204861111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>45891.63328703704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45063.62739583333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>44544.35211805555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45826.4578587963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>45891</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45245.48929398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>45826.50634259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>45891</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45891.63664351852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45826.59048611111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>45895</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>45826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45826.48462962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         <v>45749</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>45827.33614583333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45831.57122685185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>45895.35975694445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>45897</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>45013.61585648148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>45896.65934027778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>45896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>45896</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>45897.60939814815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45896.43155092592</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>45896</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>45832</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>45832</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>45643.6925</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>45901.55134259259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>45901.37824074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11967,7 +11967,7 @@
         <v>45901.62855324074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>45834.63178240741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12086,7 +12086,7 @@
         <v>45835</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>45901.37231481481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45835.44541666667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45106</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45835.4183912037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45420.74119212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>45834</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>45835.56497685185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45834.65680555555</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45230.57813657408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45902</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45646</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45835</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>45827.32953703704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>45434</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45909.58709490741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45688</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>45909.57890046296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>45720</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45841</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44788</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         <v>45841.40168981482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>45427.63145833334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>45638</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>45911.55355324074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>45107</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>45841.46604166667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45911</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45842.4705787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>45524.54856481482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13896,7 +13896,7 @@
         <v>45915.45674768519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>45915.58487268518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>45912.43563657408</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>45114</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>45848.44229166667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45712.47305555556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>45692.56569444444</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>45826</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>45918</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>45853</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>45700</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45918</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45754</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>45919.4736574074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45741.62037037037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45918</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45722</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45245</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45922.67131944445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45911</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45925.64365740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45776</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45867</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>45925</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45545</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45925.37945601852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45924.70509259259</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>45180</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45072</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45072</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45929</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>45929</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45870.42993055555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>45926.61857638889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45271.70149305555</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>45931.39087962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45931</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>45931</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45603.5819675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>45169.48890046297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45931</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>45575.58648148148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45874.60010416667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45933</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45932.60266203704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45877</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45932.51171296297</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         <v>45933</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>45933</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>45932.43795138889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>45932.4591087963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45936.56618055556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45880.63378472222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45664</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45936.45268518518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45936.54788194445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45936.56003472222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45882</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>45882</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>45882</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>45883</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>45597</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45769</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45246.54696759259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45939</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>45940.6605324074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>45671.40900462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>45943.64987268519</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45299.33832175926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45943.64201388889</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45940.60739583334</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>45943</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45943.5703125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45407.59866898148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45771</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45940.56537037037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>45940.58966435185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>45887.62321759259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>45945.69899305556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45945.48466435185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>45665</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45124</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45124</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45667.6453587963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45947</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45947</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45947</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>45947.45486111111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45950.44045138889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45951</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45604</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45267</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>44508</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45951.33466435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45744.59353009259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45384</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45253</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45628</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         <v>45953.3792824074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>45408.4859375</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45953.3784375</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45953.67331018519</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45087.49439814815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45088.94734953704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45954.51530092592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>45958.5880787037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>45328</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45959.55449074074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45959.36414351852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45959.56959490741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45960.53378472223</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45750.0056712963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>45961.50017361111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>45960.42135416667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45167.52358796296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21020,7 +21020,7 @@
         <v>44911</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>45960.52164351852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>45897.61912037037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45965.34521990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45763</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>44904.49831018518</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45529</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45965</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45257</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>45966.3782175926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45968.59608796296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45436</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45418</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45968.50046296296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45968.50886574074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>45597</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>45971.6706712963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>45971.60143518518</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44435.47295138889</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45972</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45973.64105324074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45973</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22458,7 +22458,7 @@
         <v>45973.60055555555</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>45625</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>45625.78412037037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45973</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45973</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>45516</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>45973.60501157407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45973.61988425926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45973.60925925926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45973</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         <v>45972</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45974</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45229.65445601852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>45393.588125</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>45974.46380787037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45576.52289351852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45974.41037037037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23502,7 +23502,7 @@
         <v>45974.41440972222</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>45012</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45974.37140046297</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45974.38503472223</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45978.60393518519</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45428.45182870371</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45981.63868055555</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45981.65354166667</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45982.4777662037</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44803</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>45985.54855324074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>45364</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>45985.33813657407</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>45658.74451388889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45982.38162037037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45985.40229166667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>45981.88030092593</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45985.39790509259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45646</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45986</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45401.48166666667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45618.44033564815</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>45384</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45988.74881944444</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>45229</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45989.49996527778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45989.4919212963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45989.49606481481</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>45484</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>45327.44349537037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25312,7 +25312,7 @@
         <v>45989.5347800926</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>45992.52568287037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>45740.83446759259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45732.87565972222</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>45222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25602,7 +25602,7 @@
         <v>45992.50758101852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45992.52372685185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>45993.48380787037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45993.39767361111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>45077.48210648148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>45995.47346064815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>45995.7172337963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>45995.39877314815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45602</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>45996.51069444444</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>45999.45385416667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>45996.4994212963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26341,7 +26341,7 @@
         <v>45588</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         <v>46040.74627314815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26455,7 +26455,7 @@
         <v>45628</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45391.88422453704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44536.57564814815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>45996.46725694444</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26693,7 +26693,7 @@
         <v>44579.56311342592</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>46000.37956018518</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>46001</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26869,7 +26869,7 @@
         <v>46000.31518518519</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26926,7 +26926,7 @@
         <v>44911</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26983,7 +26983,7 @@
         <v>46001.46604166667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27040,7 +27040,7 @@
         <v>45226</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>46001.42677083334</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27159,7 +27159,7 @@
         <v>46001.53278935186</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44386</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>46001.63010416667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>46001.31626157407</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>46003.3328125</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>46003</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>46003.69746527778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27578,7 +27578,7 @@
         <v>46001.91555555556</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27635,7 +27635,7 @@
         <v>44439</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>45189.46456018519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>45037.32414351852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>46002.69542824074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>46002.57747685185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44789</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27992,7 +27992,7 @@
         <v>44805.56246527778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>46003.69002314815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>45202.79825231482</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>46002.57288194444</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28230,7 +28230,7 @@
         <v>45133</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28287,7 +28287,7 @@
         <v>46006</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45456.50659722222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>46006</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44470</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>45232</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>46004.47174768519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45772</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>46004.46229166666</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45775</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44847</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45607</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>46009.52553240741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>45077.47910879629</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>45077.4805787037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29177,7 +29177,7 @@
         <v>46010.44204861111</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29239,7 +29239,7 @@
         <v>44960</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45484</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45537</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>44588</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>45063.60222222222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>45581</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29601,7 +29601,7 @@
         <v>45767</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>44981</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>45203.36576388889</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45463</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44579.55377314815</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>46014.37099537037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44951.66170138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>46014.49609953703</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>45152.51186342593</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>46056.4637037037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>46056.46625</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44844.64200231482</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>45973.57196759259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>45578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45825.51052083333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45120.30858796297</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>46063.38245370371</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45622</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45240.6055787037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45758</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45833.46820601852</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45952.54662037037</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>46062.63978009259</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45951.44256944444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45202.56717592593</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>46064.32752314815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>45547</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>45418</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>45364</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44994</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45462.61162037037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>45763</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45616</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>46059</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31711,7 +31711,7 @@
         <v>44887.57297453703</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31773,7 +31773,7 @@
         <v>45173</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45014.74503472223</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45625.76855324074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>45625.78240740741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45625</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32083,7 +32083,7 @@
         <v>44957</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45687</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45474.34940972222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45748.58888888889</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45511.64414351852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>45524</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32440,7 +32440,7 @@
         <v>44596</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>45186.41872685185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45569</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>45244.82778935185</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32730,7 +32730,7 @@
         <v>45775</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45583</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44691.36131944445</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>45096.36200231482</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45195</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45655</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45655.80100694444</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44935</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33206,7 +33206,7 @@
         <v>44959</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>45230</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33325,7 +33325,7 @@
         <v>45274.52950231481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33382,7 +33382,7 @@
         <v>45184</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33444,7 +33444,7 @@
         <v>45723</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         <v>45124</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33563,7 +33563,7 @@
         <v>45524.60002314814</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33620,7 +33620,7 @@
         <v>45579</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33682,7 +33682,7 @@
         <v>45568.36819444445</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33739,7 +33739,7 @@
         <v>45342</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33796,7 +33796,7 @@
         <v>45770.32002314815</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33853,7 +33853,7 @@
         <v>45726.87460648148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33910,7 +33910,7 @@
         <v>45567</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>45700</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>45088.95497685186</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>45775</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34148,7 +34148,7 @@
         <v>45643</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34205,7 +34205,7 @@
         <v>44530.60211805555</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>45439</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34329,7 +34329,7 @@
         <v>45644.54251157407</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>44960</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34453,7 +34453,7 @@
         <v>45700.60505787037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34510,7 +34510,7 @@
         <v>45436</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34567,7 +34567,7 @@
         <v>45463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44880</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>45700</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>45204</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44467.63005787037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>45720.44628472222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34919,7 +34919,7 @@
         <v>45593.341875</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         <v>45075</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>44461.56226851852</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35115,7 +35115,7 @@
         <v>44872.32150462963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35172,7 +35172,7 @@
         <v>45516</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
         <v>45723.6612037037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35291,7 +35291,7 @@
         <v>45700.44770833333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>44809</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35405,7 +35405,7 @@
         <v>45607</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>44672</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
         <v>44998</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45195</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35648,7 +35648,7 @@
         <v>45427</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35705,7 +35705,7 @@
         <v>45427</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35762,7 +35762,7 @@
         <v>45741.50583333334</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>44386</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45471.54475694444</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35943,7 +35943,7 @@
         <v>45414.38712962963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36000,7 +36000,7 @@
         <v>45586.37773148148</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36062,7 +36062,7 @@
         <v>45495.58861111111</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36119,7 +36119,7 @@
         <v>45667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36181,7 +36181,7 @@
         <v>45439</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44515</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>45789.31070601852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>45788.46444444444</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45477.57092592592</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>45530.67231481482</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>45790.44490740741</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45791.55612268519</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36657,7 +36657,7 @@
         <v>45593.52293981481</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>45791</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45791</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45790.38118055555</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>45790.31645833333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>45667</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45793</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37086,7 +37086,7 @@
         <v>45793</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37148,7 +37148,7 @@
         <v>45792.31489583333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45792</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>45355</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45726.64355324074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45797.63240740741</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44543</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45747.44082175926</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44515</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45796.64369212963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>45439</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>45322</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45747.44877314815</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45799.32064814815</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>44801.94767361111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45586.77313657408</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45802</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38085,7 +38085,7 @@
         <v>45805.37556712963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         <v>45805.38965277778</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38199,7 +38199,7 @@
         <v>45810.6196875</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>45811</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>45470.57790509259</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>45812.46127314815</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>45812.42153935185</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38504,7 +38504,7 @@
         <v>45812</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>45469</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>45812</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38685,7 +38685,7 @@
         <v>45812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
